--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -77,52 +77,106 @@
     <t xml:space="preserve">DECATUR</t>
   </si>
   <si>
+    <t xml:space="preserve">79.1835308238153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.624280046488</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHEMOURS EL DORADO</t>
   </si>
   <si>
     <t xml:space="preserve">EL DORADO</t>
   </si>
   <si>
+    <t xml:space="preserve">103.612502034919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6605130373706</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHEMOURS LOUISVILLE WORKS</t>
   </si>
   <si>
     <t xml:space="preserve">LOUISVILLE</t>
   </si>
   <si>
+    <t xml:space="preserve">60.2481873222828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1262.07946461947</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iofina Chemical Inc.</t>
   </si>
   <si>
     <t xml:space="preserve">Covington</t>
   </si>
   <si>
+    <t xml:space="preserve">50.1163080888244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1478.2014642559</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARKEMA, INC.</t>
   </si>
   <si>
     <t xml:space="preserve">CALVERT CITY</t>
   </si>
   <si>
+    <t xml:space="preserve">155.013984349669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0399248348152</t>
+  </si>
+  <si>
     <t xml:space="preserve">HONEYWELL INTERNATIONAL INC - GEISMAR COMPLEX</t>
   </si>
   <si>
     <t xml:space="preserve">GEISMAR</t>
   </si>
   <si>
+    <t xml:space="preserve">163.018378976147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.381704044615</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEXICHEM FLUOR INC.</t>
   </si>
   <si>
     <t xml:space="preserve">SAINT GABRIEL</t>
   </si>
   <si>
+    <t xml:space="preserve">194.534577199069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.414900160566</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISLECHEM LLC</t>
   </si>
   <si>
     <t xml:space="preserve">GRAND ISLAND</t>
   </si>
   <si>
+    <t xml:space="preserve">41.168584416499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828.37436563237</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chemours - Corpus Christi Plant</t>
   </si>
   <si>
     <t xml:space="preserve">Gregory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317.643922321843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7501998650348</t>
   </si>
 </sst>
 </file>
@@ -526,14 +580,14 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
-        <v>79.1835308238153</v>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>13669</v>
       </c>
-      <c r="G2" t="n">
-        <v>172.624280046488</v>
+      <c r="G2" t="s">
+        <v>22</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -566,18 +620,18 @@
         <v>17.2954604417089</v>
       </c>
       <c r="R2" t="n">
-        <v>45.2407783750426</v>
+        <v>43</v>
       </c>
       <c r="S2" t="n">
-        <v>0.626449528152549</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>66990</v>
@@ -585,14 +639,14 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>103.612502034919</v>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
       <c r="F3" t="n">
         <v>4731</v>
       </c>
-      <c r="G3" t="n">
-        <v>45.6605130373706</v>
+      <c r="G3" t="s">
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -625,18 +679,18 @@
         <v>6.92743033168565</v>
       </c>
       <c r="R3" t="n">
-        <v>53.5633054085323</v>
+        <v>50</v>
       </c>
       <c r="S3" t="n">
-        <v>0.677420520359875</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>3707770</v>
@@ -644,14 +698,14 @@
       <c r="D4" t="n">
         <v>69</v>
       </c>
-      <c r="E4" t="n">
-        <v>60.2481873222828</v>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" t="n">
         <v>76038</v>
       </c>
-      <c r="G4" t="n">
-        <v>1262.07946461947</v>
+      <c r="G4" t="s">
+        <v>30</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -684,31 +738,31 @@
         <v>14.4760317162351</v>
       </c>
       <c r="R4" t="n">
-        <v>37.0815224470817</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>0.488236917283223</v>
+        <v>0.404347826086957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="n">
         <v>39</v>
       </c>
-      <c r="E5" t="n">
-        <v>50.1163080888244</v>
+      <c r="E5" t="s">
+        <v>33</v>
       </c>
       <c r="F5" t="n">
         <v>74082</v>
       </c>
-      <c r="G5" t="n">
-        <v>1478.2014642559</v>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -741,18 +795,18 @@
         <v>3.81139831130443</v>
       </c>
       <c r="R5" t="n">
-        <v>30.6358409558401</v>
+        <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.44322249475189</v>
+        <v>0.384615384615385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
         <v>843010</v>
@@ -760,14 +814,14 @@
       <c r="D6" t="n">
         <v>7</v>
       </c>
-      <c r="E6" t="n">
-        <v>155.013984349669</v>
+      <c r="E6" t="s">
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>8997</v>
       </c>
-      <c r="G6" t="n">
-        <v>58.0399248348152</v>
+      <c r="G6" t="s">
+        <v>38</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -800,18 +854,18 @@
         <v>4.60492319253846</v>
       </c>
       <c r="R6" t="n">
-        <v>33.2445554469869</v>
+        <v>34.2857142857143</v>
       </c>
       <c r="S6" t="n">
-        <v>1.90263732761215</v>
+        <v>1.37142857142857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>413584</v>
@@ -819,14 +873,14 @@
       <c r="D7" t="n">
         <v>8</v>
       </c>
-      <c r="E7" t="n">
-        <v>163.018378976147</v>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
       <c r="F7" t="n">
         <v>24678</v>
       </c>
-      <c r="G7" t="n">
-        <v>151.381704044615</v>
+      <c r="G7" t="s">
+        <v>42</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -859,18 +913,18 @@
         <v>2.87256612619637</v>
       </c>
       <c r="R7" t="n">
-        <v>135.206669555444</v>
+        <v>128.75</v>
       </c>
       <c r="S7" t="n">
-        <v>0.797919511351107</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C8" t="n">
         <v>18331</v>
@@ -878,14 +932,14 @@
       <c r="D8" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>194.534577199069</v>
+      <c r="E8" t="s">
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>24203</v>
       </c>
-      <c r="G8" t="n">
-        <v>124.414900160566</v>
+      <c r="G8" t="s">
+        <v>46</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -918,31 +972,31 @@
         <v>3.66226404603994</v>
       </c>
       <c r="R8" t="n">
-        <v>132.775690265665</v>
+        <v>127</v>
       </c>
       <c r="S8" t="n">
-        <v>0.840648570823584</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="n">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>41.168584416499</v>
+      <c r="E9" t="s">
+        <v>49</v>
       </c>
       <c r="F9" t="n">
         <v>34103</v>
       </c>
-      <c r="G9" t="n">
-        <v>828.37436563237</v>
+      <c r="G9" t="s">
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -975,18 +1029,18 @@
         <v>9.60852285055576</v>
       </c>
       <c r="R9" t="n">
-        <v>25.9376405952702</v>
+        <v>21.3333333333333</v>
       </c>
       <c r="S9" t="n">
-        <v>0.523289314962692</v>
+        <v>0.266666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
         <v>17240</v>
@@ -994,14 +1048,14 @@
       <c r="D10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="n">
-        <v>317.643922321843</v>
+      <c r="E10" t="s">
+        <v>53</v>
       </c>
       <c r="F10" t="n">
         <v>18344</v>
       </c>
-      <c r="G10" t="n">
-        <v>57.7501998650348</v>
+      <c r="G10" t="s">
+        <v>54</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1034,10 +1088,10 @@
         <v>3.28359556469144</v>
       </c>
       <c r="R10" t="n">
-        <v>18.152540509802</v>
+        <v>20</v>
       </c>
       <c r="S10" t="n">
-        <v>0.214380005787099</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Label</t>
   </si>
@@ -71,40 +71,28 @@
     <t xml:space="preserve">total_risk_resp</t>
   </si>
   <si>
-    <t xml:space="preserve">DAIKIN AMERICA INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECATUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.1835308238153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.624280046488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMOURS EL DORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL DORADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.612502034919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6605130373706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEMOURS LOUISVILLE WORKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOUISVILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.2481873222828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1262.07946461947</t>
+    <t xml:space="preserve">Daikin America Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours Chambers Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemours Louisville Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisville</t>
   </si>
   <si>
     <t xml:space="preserve">Iofina Chemical Inc.</t>
@@ -113,70 +101,34 @@
     <t xml:space="preserve">Covington</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1163080888244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1478.2014642559</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARKEMA, INC.</t>
   </si>
   <si>
-    <t xml:space="preserve">CALVERT CITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.013984349669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0399248348152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HONEYWELL INTERNATIONAL INC - GEISMAR COMPLEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEISMAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.018378976147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.381704044615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEXICHEM FLUOR INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAINT GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.534577199069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.414900160566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISLECHEM LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAND ISLAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.168584416499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">828.37436563237</t>
+    <t xml:space="preserve">Calvert City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honeywell International - Geismar Complex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geismar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexichem Fluor Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Gabriel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islechem LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Island</t>
   </si>
   <si>
     <t xml:space="preserve">Chemours - Corpus Christi Plant</t>
   </si>
   <si>
     <t xml:space="preserve">Gregory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">317.643922321843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7501998650348</t>
   </si>
 </sst>
 </file>
@@ -580,14 +532,14 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="E2" t="n">
+        <v>79.1835308238153</v>
       </c>
       <c r="F2" t="n">
         <v>13669</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
+      <c r="G2" t="n">
+        <v>172.624280046488</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -628,10 +580,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>66990</v>
@@ -639,14 +591,14 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
+      <c r="E3" t="n">
+        <v>103.612502034919</v>
       </c>
       <c r="F3" t="n">
         <v>4731</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="G3" t="n">
+        <v>45.6605130373706</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -687,200 +639,200 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3707770</v>
+        <v>2619</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75.1709513066939</v>
       </c>
       <c r="F4" t="n">
-        <v>76038</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+        <v>24988</v>
+      </c>
+      <c r="G4" t="n">
+        <v>332.415641489625</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.029</v>
+        <v>0.48</v>
       </c>
       <c r="J4" t="n">
-        <v>23078</v>
+        <v>17406</v>
       </c>
       <c r="K4" t="n">
-        <v>48936</v>
+        <v>5094</v>
       </c>
       <c r="L4" t="n">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>722</v>
+        <v>303</v>
       </c>
       <c r="N4" t="n">
-        <v>3185</v>
+        <v>3105</v>
       </c>
       <c r="O4" t="n">
-        <v>36.331875</v>
+        <v>57.3314761904762</v>
       </c>
       <c r="P4" t="n">
-        <v>12.0781722234907</v>
+        <v>5.43260979728826</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.4760317162351</v>
+        <v>10.0456620426931</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>42.2727272727273</v>
       </c>
       <c r="S4" t="n">
-        <v>0.404347826086957</v>
+        <v>0.359090909090909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5"/>
+        <v>26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3707770</v>
+      </c>
       <c r="D5" t="n">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60.2481873222828</v>
       </c>
       <c r="F5" t="n">
-        <v>74082</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+        <v>76038</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1262.07946461947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.077</v>
+        <v>0.029</v>
       </c>
       <c r="J5" t="n">
-        <v>69398</v>
+        <v>23078</v>
       </c>
       <c r="K5" t="n">
-        <v>1739</v>
+        <v>48936</v>
       </c>
       <c r="L5" t="n">
-        <v>55</v>
+        <v>202</v>
       </c>
       <c r="M5" t="n">
-        <v>1118</v>
+        <v>722</v>
       </c>
       <c r="N5" t="n">
-        <v>1434</v>
+        <v>3185</v>
       </c>
       <c r="O5" t="n">
-        <v>78.9984358974359</v>
+        <v>36.331875</v>
       </c>
       <c r="P5" t="n">
-        <v>3.99624121792894</v>
+        <v>12.0781722234907</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.81139831130443</v>
+        <v>14.4760317162351</v>
       </c>
       <c r="R5" t="n">
         <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.384615384615385</v>
+        <v>0.404347826086957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="n">
-        <v>843010</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50.1163080888244</v>
       </c>
       <c r="F6" t="n">
-        <v>8997</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
+        <v>74082</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1478.2014642559</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.077</v>
       </c>
       <c r="J6" t="n">
-        <v>8873</v>
+        <v>69398</v>
       </c>
       <c r="K6" t="n">
-        <v>32</v>
+        <v>1739</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>1118</v>
       </c>
       <c r="N6" t="n">
-        <v>279</v>
+        <v>1434</v>
       </c>
       <c r="O6" t="n">
-        <v>55.3237142857143</v>
+        <v>78.9984358974359</v>
       </c>
       <c r="P6" t="n">
-        <v>6.8900563213605</v>
+        <v>3.99624121792894</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.60492319253846</v>
+        <v>3.81139831130443</v>
       </c>
       <c r="R6" t="n">
-        <v>34.2857142857143</v>
+        <v>30</v>
       </c>
       <c r="S6" t="n">
-        <v>1.37142857142857</v>
+        <v>0.384615384615385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>413584</v>
+        <v>843010</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>155.013984349669</v>
       </c>
       <c r="F7" t="n">
-        <v>24678</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
+        <v>8997</v>
+      </c>
+      <c r="G7" t="n">
+        <v>58.0399248348152</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -889,57 +841,57 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>15603</v>
+        <v>8873</v>
       </c>
       <c r="K7" t="n">
-        <v>8460</v>
+        <v>32</v>
       </c>
       <c r="L7" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N7" t="n">
-        <v>668</v>
+        <v>279</v>
       </c>
       <c r="O7" t="n">
-        <v>73.2828571428571</v>
+        <v>55.3237142857143</v>
       </c>
       <c r="P7" t="n">
-        <v>6.2761254440375</v>
+        <v>6.8900563213605</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.87256612619637</v>
+        <v>4.60492319253846</v>
       </c>
       <c r="R7" t="n">
-        <v>128.75</v>
+        <v>34.2857142857143</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5375</v>
+        <v>1.37142857142857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>18331</v>
+        <v>413584</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>163.018378976147</v>
       </c>
       <c r="F8" t="n">
-        <v>24203</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
+        <v>24678</v>
+      </c>
+      <c r="G8" t="n">
+        <v>151.381704044615</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -948,149 +900,208 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>13347</v>
+        <v>15603</v>
       </c>
       <c r="K8" t="n">
-        <v>10237</v>
+        <v>8460</v>
       </c>
       <c r="L8" t="n">
         <v>26</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N8" t="n">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="O8" t="n">
-        <v>55.8873333333333</v>
+        <v>73.2828571428571</v>
       </c>
       <c r="P8" t="n">
-        <v>5.49989387501395</v>
+        <v>6.2761254440375</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.66226404603994</v>
+        <v>2.87256612619637</v>
       </c>
       <c r="R8" t="n">
-        <v>127</v>
+        <v>128.75</v>
       </c>
       <c r="S8" t="n">
-        <v>0.57</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9"/>
+        <v>34</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18331</v>
+      </c>
       <c r="D9" t="n">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>194.534577199069</v>
       </c>
       <c r="F9" t="n">
-        <v>34103</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
+        <v>24203</v>
+      </c>
+      <c r="G9" t="n">
+        <v>124.414900160566</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.033</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>30175</v>
+        <v>13347</v>
       </c>
       <c r="K9" t="n">
-        <v>1646</v>
+        <v>10237</v>
       </c>
       <c r="L9" t="n">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="M9" t="n">
-        <v>647</v>
+        <v>14</v>
       </c>
       <c r="N9" t="n">
-        <v>778</v>
+        <v>640</v>
       </c>
       <c r="O9" t="n">
-        <v>55.9028571428571</v>
+        <v>55.8873333333333</v>
       </c>
       <c r="P9" t="n">
-        <v>8.22610629400256</v>
+        <v>5.49989387501395</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.60852285055576</v>
+        <v>3.66226404603994</v>
       </c>
       <c r="R9" t="n">
-        <v>21.3333333333333</v>
+        <v>127</v>
       </c>
       <c r="S9" t="n">
-        <v>0.266666666666667</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41.168584416499</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34103</v>
+      </c>
+      <c r="G10" t="n">
+        <v>828.37436563237</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="J10" t="n">
+        <v>30175</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1646</v>
+      </c>
+      <c r="L10" t="n">
+        <v>312</v>
+      </c>
+      <c r="M10" t="n">
+        <v>647</v>
+      </c>
+      <c r="N10" t="n">
+        <v>778</v>
+      </c>
+      <c r="O10" t="n">
+        <v>55.9028571428571</v>
+      </c>
+      <c r="P10" t="n">
+        <v>8.22610629400256</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.60852285055576</v>
+      </c>
+      <c r="R10" t="n">
+        <v>21.3333333333333</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="n">
         <v>17240</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E11" t="n">
+        <v>317.643922321843</v>
+      </c>
+      <c r="F11" t="n">
         <v>18344</v>
       </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="G11" t="n">
+        <v>57.7501998650348</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.9</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>16774</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K11" t="n">
         <v>414</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>86</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M11" t="n">
         <v>167</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>7453</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>76.896</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>3.48799084402061</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q11" t="n">
         <v>3.28359556469144</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R11" t="n">
         <v>20</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
+++ b/output/Allocation Rule/facility_data/allocation_rule_facility_demographics_3mi.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">pop</t>
   </si>
   <si>
-    <t xml:space="preserve">pop_sq_mile_3mi</t>
+    <t xml:space="preserve">pop_sq_mile_1mi</t>
   </si>
   <si>
     <t xml:space="preserve">rural_facility</t>
